--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12555" windowHeight="6345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="VerifyBuildVersion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -526,12 +527,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
